--- a/vernaculos.xlsx
+++ b/vernaculos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavieraguas/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavieraguas/Documents/GitHub/Centro Jambatu/amphibians-wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ACA512-B33F-4E4F-ADC5-5D9E7E3FA7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC732C5-8102-0A42-A454-3FE33CF743E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2120" yWindow="840" windowWidth="33140" windowHeight="19460" xr2:uid="{6CF2E5A8-E236-1645-9BC9-A425F112D3D2}"/>
   </bookViews>
@@ -2029,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84470B62-82DB-8B49-8D01-86D7AF0468E1}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="193" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="150" zoomScaleNormal="193" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
